--- a/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiFe_CrMoTi_TC_wt_pct_ML_XAI_swish.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiFe_CrMoTi_TC_wt_pct_ML_XAI_swish.xlsx
@@ -497,16 +497,16 @@
         <v>72.83333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>136.5720977783203</v>
+        <v>144.2672729492188</v>
       </c>
       <c r="G2" t="n">
-        <v>56.72916030883789</v>
+        <v>50.5001220703125</v>
       </c>
       <c r="H2" t="n">
-        <v>-219.5414276123047</v>
+        <v>-214.9457092285156</v>
       </c>
       <c r="I2" t="n">
-        <v>97.52455902099609</v>
+        <v>117.0166702270508</v>
       </c>
     </row>
     <row r="3">
@@ -526,16 +526,16 @@
         <v>70.40000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>133.1981964111328</v>
+        <v>141.2877502441406</v>
       </c>
       <c r="G3" t="n">
-        <v>55.25375747680664</v>
+        <v>48.32188415527344</v>
       </c>
       <c r="H3" t="n">
-        <v>-201.4496459960938</v>
+        <v>-195.2212982177734</v>
       </c>
       <c r="I3" t="n">
-        <v>91.99642181396484</v>
+        <v>114.2264862060547</v>
       </c>
     </row>
     <row r="4">
@@ -555,16 +555,16 @@
         <v>67.96666666666667</v>
       </c>
       <c r="F4" t="n">
-        <v>128.8328399658203</v>
+        <v>135.0399627685547</v>
       </c>
       <c r="G4" t="n">
-        <v>55.96750259399414</v>
+        <v>47.72129058837891</v>
       </c>
       <c r="H4" t="n">
-        <v>-184.4862518310547</v>
+        <v>-165.8790740966797</v>
       </c>
       <c r="I4" t="n">
-        <v>91.00019073486328</v>
+        <v>111.735954284668</v>
       </c>
     </row>
     <row r="5">
@@ -584,16 +584,16 @@
         <v>65.53333333333333</v>
       </c>
       <c r="F5" t="n">
-        <v>124.9635696411133</v>
+        <v>131.6126251220703</v>
       </c>
       <c r="G5" t="n">
-        <v>54.47480773925781</v>
+        <v>46.77426528930664</v>
       </c>
       <c r="H5" t="n">
-        <v>-163.4738159179688</v>
+        <v>-147.1912689208984</v>
       </c>
       <c r="I5" t="n">
-        <v>92.74301147460938</v>
+        <v>108.7887573242188</v>
       </c>
     </row>
     <row r="6">
@@ -613,16 +613,16 @@
         <v>63.09999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>120.6352081298828</v>
+        <v>130.6195068359375</v>
       </c>
       <c r="G6" t="n">
-        <v>54.92953491210938</v>
+        <v>46.30547332763672</v>
       </c>
       <c r="H6" t="n">
-        <v>-150.8608551025391</v>
+        <v>-126.5908050537109</v>
       </c>
       <c r="I6" t="n">
-        <v>89.35161590576172</v>
+        <v>110.2894134521484</v>
       </c>
     </row>
     <row r="7">
@@ -642,16 +642,16 @@
         <v>60.66666666666666</v>
       </c>
       <c r="F7" t="n">
-        <v>115.6102752685547</v>
+        <v>130.4174346923828</v>
       </c>
       <c r="G7" t="n">
-        <v>55.99468612670898</v>
+        <v>48.67417907714844</v>
       </c>
       <c r="H7" t="n">
-        <v>-129.0302429199219</v>
+        <v>-107.1714248657227</v>
       </c>
       <c r="I7" t="n">
-        <v>90.474853515625</v>
+        <v>101.39306640625</v>
       </c>
     </row>
     <row r="8">
@@ -671,16 +671,16 @@
         <v>58.23333333333333</v>
       </c>
       <c r="F8" t="n">
-        <v>113.3074645996094</v>
+        <v>126.8916244506836</v>
       </c>
       <c r="G8" t="n">
-        <v>56.92388534545898</v>
+        <v>47.4674186706543</v>
       </c>
       <c r="H8" t="n">
-        <v>-115.2646713256836</v>
+        <v>-83.19017791748047</v>
       </c>
       <c r="I8" t="n">
-        <v>85.47686004638672</v>
+        <v>94.73268890380859</v>
       </c>
     </row>
     <row r="9">
@@ -700,16 +700,16 @@
         <v>55.8</v>
       </c>
       <c r="F9" t="n">
-        <v>109.9174880981445</v>
+        <v>122.6837921142578</v>
       </c>
       <c r="G9" t="n">
-        <v>58.75459289550781</v>
+        <v>46.16749572753906</v>
       </c>
       <c r="H9" t="n">
-        <v>-96.54113006591797</v>
+        <v>-67.07678985595703</v>
       </c>
       <c r="I9" t="n">
-        <v>83.93003845214844</v>
+        <v>94.23000335693359</v>
       </c>
     </row>
     <row r="10">
@@ -729,16 +729,16 @@
         <v>53.36666666666667</v>
       </c>
       <c r="F10" t="n">
-        <v>106.421989440918</v>
+        <v>121.9928741455078</v>
       </c>
       <c r="G10" t="n">
-        <v>58.18063354492188</v>
+        <v>46.87046051025391</v>
       </c>
       <c r="H10" t="n">
-        <v>-85.91548156738281</v>
+        <v>-54.69403457641602</v>
       </c>
       <c r="I10" t="n">
-        <v>80.45585632324219</v>
+        <v>84.92711639404297</v>
       </c>
     </row>
     <row r="11">
@@ -758,16 +758,16 @@
         <v>50.93333333333333</v>
       </c>
       <c r="F11" t="n">
-        <v>101.361213684082</v>
+        <v>117.4010314941406</v>
       </c>
       <c r="G11" t="n">
-        <v>59.91408538818359</v>
+        <v>47.21004104614258</v>
       </c>
       <c r="H11" t="n">
-        <v>-78.49559020996094</v>
+        <v>-40.73036956787109</v>
       </c>
       <c r="I11" t="n">
-        <v>78.46839904785156</v>
+        <v>79.34691619873047</v>
       </c>
     </row>
     <row r="12">
@@ -787,16 +787,16 @@
         <v>48.49999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>96.337158203125</v>
+        <v>115.9743499755859</v>
       </c>
       <c r="G12" t="n">
-        <v>60.38520812988281</v>
+        <v>48.49937438964844</v>
       </c>
       <c r="H12" t="n">
-        <v>-68.52072906494141</v>
+        <v>-28.70540618896484</v>
       </c>
       <c r="I12" t="n">
-        <v>79.77497100830078</v>
+        <v>72.82948303222656</v>
       </c>
     </row>
     <row r="13">
@@ -816,16 +816,16 @@
         <v>46.06666666666666</v>
       </c>
       <c r="F13" t="n">
-        <v>91.45850372314453</v>
+        <v>111.7285537719727</v>
       </c>
       <c r="G13" t="n">
-        <v>60.59085845947266</v>
+        <v>50.17398071289062</v>
       </c>
       <c r="H13" t="n">
-        <v>-51.65744781494141</v>
+        <v>-23.54777336120605</v>
       </c>
       <c r="I13" t="n">
-        <v>76.84981536865234</v>
+        <v>72.83486938476562</v>
       </c>
     </row>
     <row r="14">
@@ -845,16 +845,16 @@
         <v>43.63333333333333</v>
       </c>
       <c r="F14" t="n">
-        <v>90.16343688964844</v>
+        <v>113.8427734375</v>
       </c>
       <c r="G14" t="n">
-        <v>64.46635437011719</v>
+        <v>49.91967010498047</v>
       </c>
       <c r="H14" t="n">
-        <v>-49.15349960327148</v>
+        <v>-13.90084838867188</v>
       </c>
       <c r="I14" t="n">
-        <v>75.70523071289062</v>
+        <v>68.28767395019531</v>
       </c>
     </row>
     <row r="15">
@@ -874,16 +874,16 @@
         <v>41.2</v>
       </c>
       <c r="F15" t="n">
-        <v>88.48919677734375</v>
+        <v>109.5598831176758</v>
       </c>
       <c r="G15" t="n">
-        <v>67.92657470703125</v>
+        <v>50.38418960571289</v>
       </c>
       <c r="H15" t="n">
-        <v>-45.88456726074219</v>
+        <v>-8.348728179931641</v>
       </c>
       <c r="I15" t="n">
-        <v>77.97420501708984</v>
+        <v>64.68697357177734</v>
       </c>
     </row>
     <row r="16">
@@ -903,16 +903,16 @@
         <v>38.76666666666667</v>
       </c>
       <c r="F16" t="n">
-        <v>84.53508758544922</v>
+        <v>107.2409439086914</v>
       </c>
       <c r="G16" t="n">
-        <v>67.35264587402344</v>
+        <v>52.53564071655273</v>
       </c>
       <c r="H16" t="n">
-        <v>-33.2139778137207</v>
+        <v>-1.285850644111633</v>
       </c>
       <c r="I16" t="n">
-        <v>75.71997833251953</v>
+        <v>60.29216384887695</v>
       </c>
     </row>
     <row r="17">
@@ -932,16 +932,16 @@
         <v>36.33333333333334</v>
       </c>
       <c r="F17" t="n">
-        <v>78.71742248535156</v>
+        <v>106.1141967773438</v>
       </c>
       <c r="G17" t="n">
-        <v>71.47760772705078</v>
+        <v>56.42535018920898</v>
       </c>
       <c r="H17" t="n">
-        <v>-32.65578842163086</v>
+        <v>1.115700602531433</v>
       </c>
       <c r="I17" t="n">
-        <v>72.97900390625</v>
+        <v>58.4163818359375</v>
       </c>
     </row>
     <row r="18">
@@ -961,16 +961,16 @@
         <v>33.90000000000002</v>
       </c>
       <c r="F18" t="n">
-        <v>72.08829498291016</v>
+        <v>102.1845321655273</v>
       </c>
       <c r="G18" t="n">
-        <v>74.74720764160156</v>
+        <v>57.75575256347656</v>
       </c>
       <c r="H18" t="n">
-        <v>-31.81179428100586</v>
+        <v>1.149704694747925</v>
       </c>
       <c r="I18" t="n">
-        <v>71.91748046875</v>
+        <v>62.59450912475586</v>
       </c>
     </row>
     <row r="19">
@@ -990,16 +990,16 @@
         <v>31.46666666666668</v>
       </c>
       <c r="F19" t="n">
-        <v>72.73712158203125</v>
+        <v>97.68022918701172</v>
       </c>
       <c r="G19" t="n">
-        <v>76.11042785644531</v>
+        <v>58.64604568481445</v>
       </c>
       <c r="H19" t="n">
-        <v>-27.89475250244141</v>
+        <v>3.920956134796143</v>
       </c>
       <c r="I19" t="n">
-        <v>75.24752807617188</v>
+        <v>56.04262924194336</v>
       </c>
     </row>
     <row r="20">
@@ -1019,16 +1019,16 @@
         <v>29.03333333333335</v>
       </c>
       <c r="F20" t="n">
-        <v>66.03730773925781</v>
+        <v>93.44040679931641</v>
       </c>
       <c r="G20" t="n">
-        <v>78.64830017089844</v>
+        <v>61.54356002807617</v>
       </c>
       <c r="H20" t="n">
-        <v>-25.05770111083984</v>
+        <v>2.16643238067627</v>
       </c>
       <c r="I20" t="n">
-        <v>75.19182586669922</v>
+        <v>56.53572082519531</v>
       </c>
     </row>
     <row r="21">
@@ -1048,16 +1048,16 @@
         <v>26.60000000000002</v>
       </c>
       <c r="F21" t="n">
-        <v>60.55953598022461</v>
+        <v>92.25375366210938</v>
       </c>
       <c r="G21" t="n">
-        <v>82.05490875244141</v>
+        <v>65.11071014404297</v>
       </c>
       <c r="H21" t="n">
-        <v>-20.69315528869629</v>
+        <v>0.610731840133667</v>
       </c>
       <c r="I21" t="n">
-        <v>72.66606903076172</v>
+        <v>57.73940658569336</v>
       </c>
     </row>
     <row r="22">
@@ -1077,16 +1077,16 @@
         <v>24.16666666666669</v>
       </c>
       <c r="F22" t="n">
-        <v>52.16597747802734</v>
+        <v>83.5260009765625</v>
       </c>
       <c r="G22" t="n">
-        <v>88.57488250732422</v>
+        <v>67.06772613525391</v>
       </c>
       <c r="H22" t="n">
-        <v>-24.81419372558594</v>
+        <v>-0.1970453709363937</v>
       </c>
       <c r="I22" t="n">
-        <v>74.01836395263672</v>
+        <v>58.66350936889648</v>
       </c>
     </row>
     <row r="23">
@@ -1106,16 +1106,16 @@
         <v>21.73333333333335</v>
       </c>
       <c r="F23" t="n">
-        <v>52.9565315246582</v>
+        <v>80.41226959228516</v>
       </c>
       <c r="G23" t="n">
-        <v>88.50151824951172</v>
+        <v>71.52261352539062</v>
       </c>
       <c r="H23" t="n">
-        <v>-23.56919860839844</v>
+        <v>-3.720203161239624</v>
       </c>
       <c r="I23" t="n">
-        <v>73.09169769287109</v>
+        <v>60.29506301879883</v>
       </c>
     </row>
     <row r="24">
@@ -1135,16 +1135,16 @@
         <v>19.30000000000003</v>
       </c>
       <c r="F24" t="n">
-        <v>45.79326629638672</v>
+        <v>73.91423034667969</v>
       </c>
       <c r="G24" t="n">
-        <v>91.66999816894531</v>
+        <v>69.92781829833984</v>
       </c>
       <c r="H24" t="n">
-        <v>-26.83537673950195</v>
+        <v>-5.552737712860107</v>
       </c>
       <c r="I24" t="n">
-        <v>77.01784515380859</v>
+        <v>60.25672149658203</v>
       </c>
     </row>
     <row r="25">
@@ -1164,16 +1164,16 @@
         <v>16.86666666666669</v>
       </c>
       <c r="F25" t="n">
-        <v>40.50083160400391</v>
+        <v>68.79290008544922</v>
       </c>
       <c r="G25" t="n">
-        <v>94.25661468505859</v>
+        <v>72.29605102539062</v>
       </c>
       <c r="H25" t="n">
-        <v>-24.64972686767578</v>
+        <v>-5.963357448577881</v>
       </c>
       <c r="I25" t="n">
-        <v>76.34555053710938</v>
+        <v>58.87642288208008</v>
       </c>
     </row>
     <row r="26">
@@ -1193,16 +1193,16 @@
         <v>14.43333333333337</v>
       </c>
       <c r="F26" t="n">
-        <v>34.57283020019531</v>
+        <v>63.10078048706055</v>
       </c>
       <c r="G26" t="n">
-        <v>99.73407745361328</v>
+        <v>80.86781311035156</v>
       </c>
       <c r="H26" t="n">
-        <v>-26.71535491943359</v>
+        <v>-13.98349761962891</v>
       </c>
       <c r="I26" t="n">
-        <v>76.19394683837891</v>
+        <v>59.97830200195312</v>
       </c>
     </row>
     <row r="27">
@@ -1222,16 +1222,16 @@
         <v>12.00000000000003</v>
       </c>
       <c r="F27" t="n">
-        <v>27.76435470581055</v>
+        <v>56.04222106933594</v>
       </c>
       <c r="G27" t="n">
-        <v>102.9122695922852</v>
+        <v>84.98781585693359</v>
       </c>
       <c r="H27" t="n">
-        <v>-25.70351600646973</v>
+        <v>-17.07749366760254</v>
       </c>
       <c r="I27" t="n">
-        <v>75.57048797607422</v>
+        <v>60.53407287597656</v>
       </c>
     </row>
     <row r="28">
@@ -1251,16 +1251,16 @@
         <v>9.566666666666691</v>
       </c>
       <c r="F28" t="n">
-        <v>22.51812553405762</v>
+        <v>47.2856330871582</v>
       </c>
       <c r="G28" t="n">
-        <v>103.3043212890625</v>
+        <v>87.50480651855469</v>
       </c>
       <c r="H28" t="n">
-        <v>-32.25812149047852</v>
+        <v>-22.06997108459473</v>
       </c>
       <c r="I28" t="n">
-        <v>77.81804656982422</v>
+        <v>66.2037353515625</v>
       </c>
     </row>
     <row r="29">
@@ -1280,16 +1280,16 @@
         <v>7.133333333333354</v>
       </c>
       <c r="F29" t="n">
-        <v>15.8443603515625</v>
+        <v>44.28636932373047</v>
       </c>
       <c r="G29" t="n">
-        <v>110.6323699951172</v>
+        <v>93.31370544433594</v>
       </c>
       <c r="H29" t="n">
-        <v>-33.00693511962891</v>
+        <v>-26.8692569732666</v>
       </c>
       <c r="I29" t="n">
-        <v>77.32087707519531</v>
+        <v>61.5975456237793</v>
       </c>
     </row>
     <row r="30">
@@ -1309,16 +1309,16 @@
         <v>4.700000000000017</v>
       </c>
       <c r="F30" t="n">
-        <v>5.560935020446777</v>
+        <v>36.67436981201172</v>
       </c>
       <c r="G30" t="n">
-        <v>115.7200698852539</v>
+        <v>93.84331512451172</v>
       </c>
       <c r="H30" t="n">
-        <v>-33.65727233886719</v>
+        <v>-29.68321990966797</v>
       </c>
       <c r="I30" t="n">
-        <v>78.16191864013672</v>
+        <v>60.67813110351562</v>
       </c>
     </row>
   </sheetData>
